--- a/doc/11.21.2013 Meeting-Request-Method/Result11.21.2013.xlsx
+++ b/doc/11.21.2013 Meeting-Request-Method/Result11.21.2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Method" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/11.21.2013 Meeting-Request-Method/Result11.21.2013.xlsx
+++ b/doc/11.21.2013 Meeting-Request-Method/Result11.21.2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Method" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>Precision</t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">2waymodel_actngram_method_topline </t>
   </si>
   <si>
-    <t xml:space="preserve">2waymodel_actngram_method_online </t>
-  </si>
-  <si>
     <t xml:space="preserve">2waymodel_actngram_method_mindchange </t>
   </si>
   <si>
@@ -78,23 +75,55 @@
     <t>Method_accuracy</t>
   </si>
   <si>
-    <t>2waymodel_actngram_request_method</t>
-  </si>
-  <si>
     <t>Requested_Accuracy</t>
   </si>
   <si>
     <t>Requested_L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstcorrect (topK=0) </t>
+  </si>
+  <si>
+    <t>Firstcorrect (topK=0)</t>
+  </si>
+  <si>
+    <t>RequestClassifier_actngram</t>
+  </si>
+  <si>
+    <t>Joint_Goals2</t>
+  </si>
+  <si>
+    <t>MethodClassifier_actngram</t>
+  </si>
+  <si>
+    <t>MethodClassifier_actngramWithSlotName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,33 +172,729 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,6 +902,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <tableColumns count="7">
+    <tableColumn id="1" name="method " dataDxfId="17"/>
+    <tableColumn id="2" name="test " dataDxfId="16"/>
+    <tableColumn id="3" name="Joint_Goals" dataDxfId="15"/>
+    <tableColumn id="4" name="Requested_Accuracy" dataDxfId="14"/>
+    <tableColumn id="5" name="Method_accuracy" dataDxfId="13"/>
+    <tableColumn id="6" name="Joint_Goals2" dataDxfId="12"/>
+    <tableColumn id="7" name="Requested_L2" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <tableColumns count="4">
+    <tableColumn id="1" name="method " dataDxfId="5"/>
+    <tableColumn id="2" name="test " dataDxfId="4"/>
+    <tableColumn id="3" name="Method_accuracy" dataDxfId="3"/>
+    <tableColumn id="4" name="Method_l2" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,404 +1411,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.73195969999999999</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.91654290000000005</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.45122269999999998</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0.14023430000000001</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.16506129999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.62304479999999995</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.90263249999999995</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.86032070000000005</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.60135640000000001</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.16429659999999999</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.2168224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.67365189999999997</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.91181630000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.89027259999999997</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.65269619999999995</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.1763673</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.21945480000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.58759119999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.90804180000000001</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.86445939999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.82481749999999998</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.1839163</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.27108120000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.73195969999999999</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.91654290000000005</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.88800840000000003</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.45122269999999998</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.14023430000000001</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.16506129999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C8" s="4">
+        <v>0.67365189999999997</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.91181630000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.93695030000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.65269619999999995</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.1763673</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.1260995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.62304479999999995</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.90263249999999995</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.86032070000000005</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.60135640000000001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.16429659999999999</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.2168224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="4">
+        <v>0.58759119999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.90804180000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.89291259999999995</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.82481749999999998</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.1839163</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.2141749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C11" s="4">
         <v>0.67365189999999997</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D11" s="9">
         <v>0.91181630000000002</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.89027259999999997</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E11" s="11">
+        <v>0.94208829999999999</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.65269619999999995</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G11" s="16">
         <v>0.1763673</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.21945480000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H11" s="12">
+        <v>0.11582340000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C12" s="4">
         <v>0.58759119999999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D12" s="9">
         <v>0.90804180000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>0.86445939999999999</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E12" s="11">
+        <v>0.8942059</v>
+      </c>
+      <c r="F12" s="9">
         <v>0.82481749999999998</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G12" s="16">
         <v>0.1839163</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.27108120000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H12" s="12">
+        <v>0.2115882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C14" s="4">
         <v>0.67365189999999997</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D14" s="9">
         <v>0.91181630000000002</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.93695030000000001</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E14" s="9">
+        <v>0.96586260000000002</v>
+      </c>
+      <c r="F14" s="9">
         <v>0.65269619999999995</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G14" s="16">
         <v>0.1763673</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.1260995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H14" s="4">
+        <v>6.8274799999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C15" s="4">
         <v>0.58759119999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D15" s="9">
         <v>0.90804180000000001</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.89291259999999995</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E15" s="9">
+        <v>0.93998970000000004</v>
+      </c>
+      <c r="F15" s="9">
         <v>0.82481749999999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G15" s="16">
         <v>0.1839163</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.2141749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="H15" s="4">
+        <v>0.12002069999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C17" s="4">
         <v>0.67365189999999997</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.91181630000000002</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D17" s="11">
+        <v>0.97798779999999996</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.94208829999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F17" s="9">
         <v>0.65269619999999995</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.1763673</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G17" s="17">
+        <v>4.4024300000000002E-2</v>
+      </c>
+      <c r="H17" s="12">
         <v>0.11582340000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C18" s="22">
         <v>0.58759119999999998</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.90804180000000001</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D18" s="23">
+        <v>0.96357740000000003</v>
+      </c>
+      <c r="E18" s="23">
         <v>0.8942059</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F18" s="24">
         <v>0.82481749999999998</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.1839163</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.2115882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.67365189999999997</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.91181630000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.96586260000000002</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.65269619999999995</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.1763673</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.8274799999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.58759119999999998</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.90804180000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.93998970000000004</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.82481749999999998</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.1839163</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.12002069999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.67365189999999997</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.97798779999999996</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.94208829999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.65269619999999995</v>
-      </c>
-      <c r="G17" s="5">
-        <v>4.4024300000000002E-2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.11582340000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.58759119999999998</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.96357740000000003</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.8942059</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.82481749999999998</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="G18" s="25">
         <v>7.2845300000000002E-2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <v>0.2115882</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.88800840000000003</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.16506129999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.86032070000000005</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.2168224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.89027259999999997</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.21945480000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.86445939999999999</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.27108120000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.94208829999999999</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.11582340000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.8942059</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.2115882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.94165290000000001</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0.1166942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.89937920000000005</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.20124159999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>